--- a/response_with_status.xlsx
+++ b/response_with_status.xlsx
@@ -499,10 +499,10 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C:C"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.82421875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.83984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="53.35" customWidth="1" style="3" min="1" max="1"/>
     <col width="68.78" customWidth="1" style="3" min="2" max="2"/>
@@ -537,11 +537,7 @@
           <t>yeah tell</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Paragraph Repeat</t>
-        </is>
-      </c>
+      <c r="C2" s="3" t="inlineStr"/>
     </row>
     <row r="3" ht="15" customHeight="1" s="4">
       <c r="A3" s="3" t="inlineStr"/>
@@ -550,11 +546,7 @@
           <t>Ok bye</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C3" s="3" t="inlineStr"/>
     </row>
     <row r="4" ht="15" customHeight="1" s="4">
       <c r="A4" s="3" t="inlineStr"/>
@@ -563,11 +555,7 @@
           <t>you can contact at the end of this month</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>Rescheduled</t>
-        </is>
-      </c>
+      <c r="C4" s="3" t="inlineStr"/>
     </row>
     <row r="5" ht="15" customHeight="1" s="4">
       <c r="A5" s="3" t="inlineStr"/>
@@ -576,11 +564,7 @@
           <t>anytime after this week</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>Rescheduled</t>
-        </is>
-      </c>
+      <c r="C5" s="3" t="inlineStr"/>
     </row>
     <row r="6" ht="15" customHeight="1" s="4">
       <c r="A6" s="3" t="inlineStr"/>
@@ -589,11 +573,7 @@
           <t>anytime between upcoming 10 days</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>Rescheduled</t>
-        </is>
-      </c>
+      <c r="C6" s="3" t="inlineStr"/>
     </row>
     <row r="7" ht="15" customHeight="1" s="4">
       <c r="A7" s="3" t="inlineStr"/>
@@ -602,11 +582,7 @@
           <t>60 months of experience i have in python</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C7" s="3" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1" s="4">
       <c r="A8" s="3" t="inlineStr"/>
@@ -615,11 +591,7 @@
           <t>next evening</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>Rescheduled</t>
-        </is>
-      </c>
+      <c r="C8" s="3" t="inlineStr"/>
     </row>
     <row r="9" ht="15" customHeight="1" s="4">
       <c r="A9" s="3" t="inlineStr"/>
@@ -628,11 +600,7 @@
           <t>anytime before tommorow evening</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>Rescheduled</t>
-        </is>
-      </c>
+      <c r="C9" s="3" t="inlineStr"/>
     </row>
     <row r="10" ht="15" customHeight="1" s="4">
       <c r="A10" s="3" t="inlineStr"/>
@@ -641,11 +609,7 @@
           <t>tommorow</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>Failed</t>
-        </is>
-      </c>
+      <c r="C10" s="3" t="inlineStr"/>
     </row>
     <row r="11" ht="15" customHeight="1" s="4">
       <c r="A11" s="3" t="inlineStr"/>
@@ -654,11 +618,7 @@
           <t>not here</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>Rescheduled</t>
-        </is>
-      </c>
+      <c r="C11" s="3" t="inlineStr"/>
     </row>
     <row r="12" ht="15" customHeight="1" s="4">
       <c r="A12" s="3" t="inlineStr"/>
@@ -667,11 +627,7 @@
           <t>yes i am available</t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C12" s="3" t="inlineStr"/>
     </row>
     <row r="13" ht="15" customHeight="1" s="4">
       <c r="A13" s="3" t="inlineStr"/>
@@ -680,11 +636,7 @@
           <t>yes i am available but give me 2 min i am just going outside</t>
         </is>
       </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>Repeated</t>
-        </is>
-      </c>
+      <c r="C13" s="3" t="inlineStr"/>
     </row>
     <row r="14" ht="15" customHeight="1" s="4">
       <c r="A14" s="3" t="inlineStr"/>
@@ -693,11 +645,7 @@
           <t>yes, this is good time to talk we can talk</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C14" s="3" t="inlineStr"/>
     </row>
     <row r="15" ht="15" customHeight="1" s="4">
       <c r="A15" s="3" t="inlineStr"/>
@@ -706,11 +654,7 @@
           <t>yes, this is good time to talk i am available</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C15" s="3" t="inlineStr"/>
     </row>
     <row r="16" ht="15" customHeight="1" s="4">
       <c r="A16" s="3" t="inlineStr"/>
@@ -719,11 +663,7 @@
           <t>yes, we can talk. as i am available now</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C16" s="3" t="inlineStr"/>
     </row>
     <row r="17" ht="15" customHeight="1" s="4">
       <c r="A17" s="3" t="inlineStr"/>
@@ -732,11 +672,7 @@
           <t>kindly schedule interview at tomorrow</t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>Rescheduled</t>
-        </is>
-      </c>
+      <c r="C17" s="3" t="inlineStr"/>
     </row>
     <row r="18" ht="15" customHeight="1" s="4">
       <c r="A18" s="3" t="inlineStr"/>
@@ -745,11 +681,7 @@
           <t>sure we can talk</t>
         </is>
       </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C18" s="3" t="inlineStr"/>
     </row>
     <row r="19" ht="15" customHeight="1" s="4">
       <c r="A19" s="3" t="inlineStr"/>
@@ -758,11 +690,7 @@
           <t>Yes of course</t>
         </is>
       </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C19" s="3" t="inlineStr"/>
     </row>
     <row r="20" ht="15" customHeight="1" s="4">
       <c r="A20" s="3" t="inlineStr"/>
@@ -771,11 +699,7 @@
           <t>sorry where are you calling from?</t>
         </is>
       </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>Paragraph Repeat</t>
-        </is>
-      </c>
+      <c r="C20" s="3" t="inlineStr"/>
     </row>
     <row r="21" ht="15" customHeight="1" s="4">
       <c r="A21" s="3" t="inlineStr"/>
@@ -784,11 +708,7 @@
           <t>yes go ahead</t>
         </is>
       </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C21" s="3" t="inlineStr"/>
     </row>
     <row r="22" ht="15" customHeight="1" s="4">
       <c r="A22" s="3" t="inlineStr"/>
@@ -797,11 +717,7 @@
           <t>currently i am at outside so not possible to talk</t>
         </is>
       </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>Rescheduled</t>
-        </is>
-      </c>
+      <c r="C22" s="3" t="inlineStr"/>
     </row>
     <row r="23" ht="15" customHeight="1" s="4">
       <c r="A23" s="3" t="inlineStr"/>
@@ -810,11 +726,7 @@
           <t>is it possible continue call at tomorrow?</t>
         </is>
       </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>Rescheduled</t>
-        </is>
-      </c>
+      <c r="C23" s="3" t="inlineStr"/>
     </row>
     <row r="24" ht="15" customHeight="1" s="4">
       <c r="A24" s="3" t="inlineStr"/>
@@ -823,11 +735,7 @@
           <t>yes, this is good time to talk</t>
         </is>
       </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C24" s="3" t="inlineStr"/>
     </row>
     <row r="25" ht="15" customHeight="1" s="4">
       <c r="A25" s="3" t="inlineStr"/>
@@ -836,11 +744,7 @@
           <t>yes i am available we can talk</t>
         </is>
       </c>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C25" s="3" t="inlineStr"/>
     </row>
     <row r="26" ht="15" customHeight="1" s="4">
       <c r="A26" s="3" t="inlineStr"/>
@@ -849,11 +753,7 @@
           <t>yes i am available we can talk now</t>
         </is>
       </c>
-      <c r="C26" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C26" s="3" t="inlineStr"/>
     </row>
     <row r="27" ht="15" customHeight="1" s="4">
       <c r="A27" s="3" t="inlineStr"/>
@@ -862,11 +762,7 @@
           <t>can we schedule interview tomorrow?</t>
         </is>
       </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>Rescheduled</t>
-        </is>
-      </c>
+      <c r="C27" s="3" t="inlineStr"/>
     </row>
     <row r="28" ht="15" customHeight="1" s="4">
       <c r="A28" s="3" t="inlineStr"/>
@@ -875,11 +771,7 @@
           <t>is there any interview tomorrow</t>
         </is>
       </c>
-      <c r="C28" s="3" t="inlineStr">
-        <is>
-          <t>Paragraph Repeat</t>
-        </is>
-      </c>
+      <c r="C28" s="3" t="inlineStr"/>
     </row>
     <row r="29" ht="15" customHeight="1" s="4">
       <c r="A29" s="3" t="inlineStr"/>
@@ -888,11 +780,7 @@
           <t>can we have any interview tomorrow?</t>
         </is>
       </c>
-      <c r="C29" s="3" t="inlineStr">
-        <is>
-          <t>Rescheduled</t>
-        </is>
-      </c>
+      <c r="C29" s="3" t="inlineStr"/>
     </row>
     <row r="30" ht="15" customHeight="1" s="4">
       <c r="A30" s="3" t="inlineStr"/>
@@ -901,11 +789,7 @@
           <t>Kindly provide me the job location</t>
         </is>
       </c>
-      <c r="C30" s="3" t="inlineStr">
-        <is>
-          <t>Paragraph Repeat</t>
-        </is>
-      </c>
+      <c r="C30" s="3" t="inlineStr"/>
     </row>
     <row r="31" ht="15" customHeight="1" s="4">
       <c r="A31" s="3" t="inlineStr"/>
@@ -914,11 +798,7 @@
           <t>tell the company name</t>
         </is>
       </c>
-      <c r="C31" s="3" t="inlineStr">
-        <is>
-          <t>Paragraph Repeat</t>
-        </is>
-      </c>
+      <c r="C31" s="3" t="inlineStr"/>
     </row>
     <row r="32" ht="15" customHeight="1" s="4">
       <c r="A32" s="3" t="inlineStr"/>
@@ -927,11 +807,7 @@
           <t>please tell me the job designation</t>
         </is>
       </c>
-      <c r="C32" s="3" t="inlineStr">
-        <is>
-          <t>Paragraph Repeat</t>
-        </is>
-      </c>
+      <c r="C32" s="3" t="inlineStr"/>
     </row>
     <row r="33" ht="15" customHeight="1" s="4">
       <c r="A33" s="3" t="inlineStr"/>
@@ -940,11 +816,7 @@
           <t>can you please provide the company name</t>
         </is>
       </c>
-      <c r="C33" s="3" t="inlineStr">
-        <is>
-          <t>Paragraph Repeat</t>
-        </is>
-      </c>
+      <c r="C33" s="3" t="inlineStr"/>
     </row>
     <row r="34" ht="15" customHeight="1" s="4">
       <c r="A34" s="3" t="inlineStr"/>
@@ -953,11 +825,7 @@
           <t>ok give me brief information about your company</t>
         </is>
       </c>
-      <c r="C34" s="3" t="inlineStr">
-        <is>
-          <t>Paragraph Repeat</t>
-        </is>
-      </c>
+      <c r="C34" s="3" t="inlineStr"/>
     </row>
     <row r="35" ht="15" customHeight="1" s="4">
       <c r="A35" s="3" t="inlineStr"/>
@@ -966,11 +834,7 @@
           <t>please tell me the roles and responsibilities for this post</t>
         </is>
       </c>
-      <c r="C35" s="3" t="inlineStr">
-        <is>
-          <t>Paragraph Repeat</t>
-        </is>
-      </c>
+      <c r="C35" s="3" t="inlineStr"/>
     </row>
     <row r="36" ht="15" customHeight="1" s="4">
       <c r="A36" s="3" t="inlineStr"/>
@@ -979,11 +843,7 @@
           <t>Provide me your contact number as well emai id for contact.</t>
         </is>
       </c>
-      <c r="C36" s="3" t="inlineStr">
-        <is>
-          <t>Paragraph Repeat</t>
-        </is>
-      </c>
+      <c r="C36" s="3" t="inlineStr"/>
     </row>
     <row r="37" ht="15" customHeight="1" s="4">
       <c r="A37" s="3" t="inlineStr"/>
@@ -992,11 +852,7 @@
           <t>So do you provide me work from home</t>
         </is>
       </c>
-      <c r="C37" s="3" t="inlineStr">
-        <is>
-          <t>Paragraph Repeat</t>
-        </is>
-      </c>
+      <c r="C37" s="3" t="inlineStr"/>
     </row>
     <row r="38" ht="15" customHeight="1" s="4">
       <c r="A38" s="3" t="inlineStr"/>
@@ -1005,11 +861,7 @@
           <t>are you calling from ahmedabad ?</t>
         </is>
       </c>
-      <c r="C38" s="3" t="inlineStr">
-        <is>
-          <t>Paragraph Repeat</t>
-        </is>
-      </c>
+      <c r="C38" s="3" t="inlineStr"/>
     </row>
     <row r="39" ht="15" customHeight="1" s="4">
       <c r="A39" s="3" t="inlineStr"/>
@@ -1018,11 +870,7 @@
           <t>ok so how much you will pay to me</t>
         </is>
       </c>
-      <c r="C39" s="3" t="inlineStr">
-        <is>
-          <t>Paragraph Repeat</t>
-        </is>
-      </c>
+      <c r="C39" s="3" t="inlineStr"/>
     </row>
     <row r="40" ht="15" customHeight="1" s="4">
       <c r="A40" s="3" t="inlineStr"/>
@@ -1031,11 +879,7 @@
           <t>yes it is but where are you calling from ?</t>
         </is>
       </c>
-      <c r="C40" s="3" t="inlineStr">
-        <is>
-          <t>Paragraph Repeat</t>
-        </is>
-      </c>
+      <c r="C40" s="3" t="inlineStr"/>
     </row>
     <row r="41" ht="15" customHeight="1" s="4">
       <c r="A41" s="3" t="inlineStr"/>
@@ -1044,11 +888,7 @@
           <t>can you please share your contact number</t>
         </is>
       </c>
-      <c r="C41" s="3" t="inlineStr">
-        <is>
-          <t>Paragraph Repeat</t>
-        </is>
-      </c>
+      <c r="C41" s="3" t="inlineStr"/>
     </row>
     <row r="42" ht="15" customHeight="1" s="4">
       <c r="A42" s="3" t="inlineStr"/>
@@ -1057,11 +897,7 @@
           <t>please share your contact number</t>
         </is>
       </c>
-      <c r="C42" s="3" t="inlineStr">
-        <is>
-          <t>Paragraph Repeat</t>
-        </is>
-      </c>
+      <c r="C42" s="3" t="inlineStr"/>
     </row>
     <row r="43" ht="15" customHeight="1" s="4">
       <c r="A43" s="3" t="inlineStr"/>
@@ -1070,11 +906,7 @@
           <t>ok guide me for roles and responsibilities for this job.</t>
         </is>
       </c>
-      <c r="C43" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C43" s="3" t="inlineStr"/>
     </row>
     <row r="44" ht="15" customHeight="1" s="4">
       <c r="A44" s="3" t="inlineStr"/>
@@ -1083,11 +915,7 @@
           <t>please share the roles and responsibilities of this job profile</t>
         </is>
       </c>
-      <c r="C44" s="3" t="inlineStr">
-        <is>
-          <t>Paragraph Repeat</t>
-        </is>
-      </c>
+      <c r="C44" s="3" t="inlineStr"/>
     </row>
     <row r="45" ht="15" customHeight="1" s="4">
       <c r="A45" s="3" t="inlineStr"/>
@@ -1096,11 +924,7 @@
           <t>ok share me the location of the company</t>
         </is>
       </c>
-      <c r="C45" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C45" s="3" t="inlineStr"/>
     </row>
     <row r="46" ht="15" customHeight="1" s="4">
       <c r="A46" s="3" t="inlineStr"/>
@@ -1109,11 +933,7 @@
           <t>if possible please tell me what is this about</t>
         </is>
       </c>
-      <c r="C46" s="3" t="inlineStr">
-        <is>
-          <t>Server Timeout</t>
-        </is>
-      </c>
+      <c r="C46" s="3" t="inlineStr"/>
     </row>
     <row r="47" ht="15" customHeight="1" s="4">
       <c r="A47" s="3" t="inlineStr"/>
@@ -1122,11 +942,7 @@
           <t>yes carry on but go slowly</t>
         </is>
       </c>
-      <c r="C47" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C47" s="3" t="inlineStr"/>
     </row>
     <row r="48" ht="15" customHeight="1" s="4">
       <c r="A48" s="3" t="inlineStr"/>
@@ -1135,11 +951,7 @@
           <t>pretty much and is there any other technology</t>
         </is>
       </c>
-      <c r="C48" s="3" t="inlineStr">
-        <is>
-          <t>Paragraph Repeat</t>
-        </is>
-      </c>
+      <c r="C48" s="3" t="inlineStr"/>
     </row>
     <row r="49" ht="15" customHeight="1" s="4">
       <c r="A49" s="3" t="inlineStr"/>
@@ -1331,10 +1143,10 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C:C"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.83984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.84765625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="101.98" customWidth="1" style="3" min="1" max="1"/>
     <col width="28.19" customWidth="1" style="3" min="2" max="2"/>
@@ -1378,11 +1190,7 @@
           <t>I would be interested</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C3" s="3" t="inlineStr"/>
     </row>
     <row r="4" ht="15" customHeight="1" s="4">
       <c r="A4" s="3" t="inlineStr"/>
@@ -1418,11 +1226,7 @@
           <t>I may be available</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C7" s="3" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1" s="4">
       <c r="A8" s="3" t="inlineStr"/>
@@ -1467,11 +1271,7 @@
           <t>Sorry I cant sure</t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C12" s="3" t="inlineStr"/>
     </row>
     <row r="13" ht="15" customHeight="1" s="4">
       <c r="A13" s="3" t="inlineStr"/>
@@ -1489,11 +1289,7 @@
           <t>thinking to continue call</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C14" s="3" t="inlineStr"/>
     </row>
     <row r="15" ht="15" customHeight="1" s="4">
       <c r="A15" s="3" t="inlineStr"/>
@@ -1502,11 +1298,7 @@
           <t>Unsure to continue call</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C15" s="3" t="inlineStr"/>
     </row>
     <row r="16" ht="15" customHeight="1" s="4">
       <c r="A16" s="3" t="inlineStr"/>
@@ -1515,11 +1307,7 @@
           <t>Unsure to carry on</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C16" s="3" t="inlineStr"/>
     </row>
     <row r="17" ht="15" customHeight="1" s="4">
       <c r="A17" s="3" t="inlineStr"/>
@@ -1537,11 +1325,7 @@
           <t>Let me think to continue</t>
         </is>
       </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>Repeated</t>
-        </is>
-      </c>
+      <c r="C18" s="3" t="inlineStr"/>
     </row>
     <row r="19" ht="15" customHeight="1" s="4">
       <c r="A19" s="3" t="inlineStr"/>
@@ -1550,11 +1334,7 @@
           <t>Very unsure to continue</t>
         </is>
       </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C19" s="3" t="inlineStr"/>
     </row>
     <row r="20" ht="15" customHeight="1" s="4">
       <c r="A20" s="3" t="inlineStr"/>
@@ -1572,11 +1352,7 @@
           <t>still thinking to continue</t>
         </is>
       </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C21" s="3" t="inlineStr"/>
     </row>
     <row r="22" ht="15" customHeight="1" s="4">
       <c r="A22" s="3" t="inlineStr"/>
@@ -1603,11 +1379,7 @@
           <t>I am not comfortable</t>
         </is>
       </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C24" s="3" t="inlineStr"/>
     </row>
     <row r="25" ht="15" customHeight="1" s="4">
       <c r="A25" s="3" t="inlineStr"/>
@@ -1616,11 +1388,7 @@
           <t>i want to disconnect</t>
         </is>
       </c>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>Failed</t>
-        </is>
-      </c>
+      <c r="C25" s="3" t="inlineStr"/>
     </row>
     <row r="26" ht="15" customHeight="1" s="4">
       <c r="A26" s="3" t="inlineStr"/>
@@ -1629,11 +1397,7 @@
           <t>it wont work sorry</t>
         </is>
       </c>
-      <c r="C26" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C26" s="3" t="inlineStr"/>
     </row>
     <row r="27" ht="15" customHeight="1" s="4">
       <c r="A27" s="3" t="inlineStr"/>
@@ -1786,11 +1550,7 @@
           <t>not sure but continue</t>
         </is>
       </c>
-      <c r="C43" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C43" s="3" t="inlineStr"/>
     </row>
     <row r="44" ht="15" customHeight="1" s="4">
       <c r="A44" s="3" t="inlineStr"/>
@@ -1808,11 +1568,7 @@
           <t>its not good moment</t>
         </is>
       </c>
-      <c r="C45" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C45" s="3" t="inlineStr"/>
     </row>
     <row r="46" ht="15" customHeight="1" s="4">
       <c r="A46" s="3" t="inlineStr"/>
@@ -1830,11 +1586,7 @@
           <t>please end the call</t>
         </is>
       </c>
-      <c r="C47" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C47" s="3" t="inlineStr"/>
     </row>
     <row r="48" ht="15" customHeight="1" s="4">
       <c r="A48" s="3" t="inlineStr"/>
@@ -1978,10 +1730,10 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A45" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C45" activeCellId="0" sqref="C:C"/>
+      <selection pane="topLeft" activeCell="C45" activeCellId="0" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.83984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.84765625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="52.66" customWidth="1" style="3" min="1" max="1"/>
     <col width="89.75" customWidth="1" style="3" min="2" max="2"/>
@@ -2025,11 +1777,7 @@
           <t>I have three years of experience but no experience in python</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C3" s="3" t="inlineStr"/>
     </row>
     <row r="4" ht="15" customHeight="1" s="4">
       <c r="A4" s="3" t="inlineStr"/>
@@ -2065,11 +1813,7 @@
           <t>No No I do not have any experience in python</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C7" s="3" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1" s="4">
       <c r="A8" s="3" t="inlineStr"/>
@@ -2114,11 +1858,7 @@
           <t>I have only 4.5 years of experience in which 1.5 years of experience in python</t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C12" s="3" t="inlineStr"/>
     </row>
     <row r="13" ht="15" customHeight="1" s="4">
       <c r="A13" s="3" t="inlineStr"/>
@@ -2136,11 +1876,7 @@
           <t>I worked 2 years in this technology</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C14" s="3" t="inlineStr"/>
     </row>
     <row r="15" ht="15" customHeight="1" s="4">
       <c r="A15" s="3" t="inlineStr"/>
@@ -2149,11 +1885,7 @@
           <t>I worked around four and half years of experience in this technology</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C15" s="3" t="inlineStr"/>
     </row>
     <row r="16" ht="15" customHeight="1" s="4">
       <c r="A16" s="3" t="inlineStr"/>
@@ -2162,11 +1894,7 @@
           <t>I worked 4 years in this technology</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C16" s="3" t="inlineStr"/>
     </row>
     <row r="17" ht="15" customHeight="1" s="4">
       <c r="A17" s="3" t="inlineStr"/>
@@ -2193,11 +1921,7 @@
           <t>I have total 5 years of experience</t>
         </is>
       </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C19" s="3" t="inlineStr"/>
     </row>
     <row r="20" ht="15" customHeight="1" s="4">
       <c r="A20" s="3" t="inlineStr"/>
@@ -2215,11 +1939,7 @@
           <t>I have 7 months of experience</t>
         </is>
       </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C21" s="3" t="inlineStr"/>
     </row>
     <row r="22" ht="15" customHeight="1" s="4">
       <c r="A22" s="3" t="inlineStr"/>
@@ -2246,11 +1966,7 @@
           <t>I have total 3.5 years of experience but not in python.</t>
         </is>
       </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C24" s="3" t="inlineStr"/>
     </row>
     <row r="25" ht="15" customHeight="1" s="4">
       <c r="A25" s="3" t="inlineStr"/>
@@ -2421,11 +2137,7 @@
           <t>I have done some certification in python.</t>
         </is>
       </c>
-      <c r="C43" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C43" s="3" t="inlineStr"/>
     </row>
     <row r="44" ht="15" customHeight="1" s="4">
       <c r="A44" s="3" t="inlineStr"/>
@@ -2461,11 +2173,7 @@
           <t>I have 6 months of experience but how much experience is needed for this job.</t>
         </is>
       </c>
-      <c r="C47" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C47" s="3" t="inlineStr"/>
     </row>
     <row r="48" ht="15" customHeight="1" s="4">
       <c r="A48" s="3" t="inlineStr"/>
@@ -2611,10 +2319,10 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A53" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C53" activeCellId="0" sqref="C:C"/>
+      <selection pane="topLeft" activeCell="C53" activeCellId="0" sqref="C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.83984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.84765625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="46.68" customWidth="1" style="3" min="1" max="1"/>
     <col width="51.66" customWidth="1" style="3" min="2" max="2"/>
@@ -2658,11 +2366,7 @@
           <t>i am earning 50k inr per month</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C3" s="3" t="inlineStr"/>
     </row>
     <row r="4" ht="15" customHeight="1" s="4">
       <c r="A4" s="3" t="inlineStr"/>
@@ -2698,11 +2402,7 @@
           <t>Every month, I make 25 k in salary.</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C7" s="3" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1" s="4">
       <c r="A8" s="3" t="inlineStr"/>
@@ -2747,11 +2447,7 @@
           <t>My ctc is 20k rupee every month.</t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C12" s="3" t="inlineStr"/>
     </row>
     <row r="13" ht="15" customHeight="1" s="4">
       <c r="A13" s="3" t="inlineStr"/>
@@ -2769,11 +2465,7 @@
           <t>30 k dollar per week</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C14" s="3" t="inlineStr"/>
     </row>
     <row r="15" ht="15" customHeight="1" s="4">
       <c r="A15" s="3" t="inlineStr"/>
@@ -2782,11 +2474,7 @@
           <t>My net income is 10 k per day</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C15" s="3" t="inlineStr"/>
     </row>
     <row r="16" ht="15" customHeight="1" s="4">
       <c r="A16" s="3" t="inlineStr"/>
@@ -2795,11 +2483,7 @@
           <t>I have a 9k daily income.</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C16" s="3" t="inlineStr"/>
     </row>
     <row r="17" ht="15" customHeight="1" s="4">
       <c r="A17" s="3" t="inlineStr"/>
@@ -2826,11 +2510,7 @@
           <t>25000 rupee</t>
         </is>
       </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C19" s="3" t="inlineStr"/>
     </row>
     <row r="20" ht="15" customHeight="1" s="4">
       <c r="A20" s="3" t="inlineStr"/>
@@ -2848,11 +2528,7 @@
           <t>I want 90 k per year</t>
         </is>
       </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C21" s="3" t="inlineStr"/>
     </row>
     <row r="22" ht="15" customHeight="1" s="4">
       <c r="A22" s="3" t="inlineStr"/>
@@ -2879,11 +2555,7 @@
           <t>some where around 20 to 40 k</t>
         </is>
       </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C24" s="3" t="inlineStr"/>
     </row>
     <row r="25" ht="15" customHeight="1" s="4">
       <c r="A25" s="3" t="inlineStr"/>
@@ -3054,11 +2726,7 @@
           <t>I have a 90k monthly income</t>
         </is>
       </c>
-      <c r="C43" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C43" s="3" t="inlineStr"/>
     </row>
     <row r="44" ht="15" customHeight="1" s="4">
       <c r="A44" s="3" t="inlineStr"/>
@@ -3092,11 +2760,7 @@
           <t>I want 90 k per year</t>
         </is>
       </c>
-      <c r="C47" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C47" s="3" t="inlineStr"/>
     </row>
     <row r="48" ht="15" customHeight="1" s="4">
       <c r="A48" s="3" t="inlineStr"/>
@@ -3183,10 +2847,10 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A47" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C47" activeCellId="0" sqref="C:C"/>
+      <selection pane="topLeft" activeCell="C47" activeCellId="0" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.83984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.84765625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="50.99" customWidth="1" style="3" min="1" max="1"/>
     <col width="51.4" customWidth="1" style="3" min="2" max="2"/>
@@ -3230,11 +2894,7 @@
           <t>25000 rupee</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C3" s="3" t="inlineStr"/>
     </row>
     <row r="4" ht="15" customHeight="1" s="4">
       <c r="A4" s="3" t="inlineStr"/>
@@ -3268,11 +2928,7 @@
           <t>"around 9 lpa</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C7" s="3" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1" s="4">
       <c r="A8" s="3" t="inlineStr"/>
@@ -3317,11 +2973,7 @@
           <t>i am earning 50k per month</t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C12" s="3" t="inlineStr"/>
     </row>
     <row r="13" ht="15" customHeight="1" s="4">
       <c r="A13" s="3" t="inlineStr"/>
@@ -3339,11 +2991,7 @@
           <t>I am earning 50k per month expecting 70 to 80 inr</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C14" s="3" t="inlineStr"/>
     </row>
     <row r="15" ht="15" customHeight="1" s="4">
       <c r="A15" s="3" t="inlineStr"/>
@@ -3352,11 +3000,7 @@
           <t>i am earning 90k per month per week per dayweekly earning</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C15" s="3" t="inlineStr"/>
     </row>
     <row r="16" ht="15" customHeight="1" s="4">
       <c r="A16" s="3" t="inlineStr"/>
@@ -3365,11 +3009,7 @@
           <t>I am expecting around 5 to 7 lpa</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C16" s="3" t="inlineStr"/>
     </row>
     <row r="17" ht="15" customHeight="1" s="4">
       <c r="A17" s="3" t="inlineStr"/>
@@ -3396,11 +3036,7 @@
           <t>I am paid 2.5 lakh every month</t>
         </is>
       </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C19" s="3" t="inlineStr"/>
     </row>
     <row r="20" ht="15" customHeight="1" s="4">
       <c r="A20" s="3" t="inlineStr"/>
@@ -3418,11 +3054,7 @@
           <t>I have a 90k monthly income</t>
         </is>
       </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C21" s="3" t="inlineStr"/>
     </row>
     <row r="22" ht="15" customHeight="1" s="4">
       <c r="A22" s="3" t="inlineStr"/>
@@ -3449,11 +3081,7 @@
           <t>I want 90 k per year</t>
         </is>
       </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C24" s="3" t="inlineStr"/>
     </row>
     <row r="25" ht="15" customHeight="1" s="4">
       <c r="A25" s="3" t="inlineStr"/>
@@ -3624,11 +3252,7 @@
           <t>umm around 9 to 10 lpa</t>
         </is>
       </c>
-      <c r="C43" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C43" s="3" t="inlineStr"/>
     </row>
     <row r="44" ht="15" customHeight="1" s="4">
       <c r="A44" s="3" t="inlineStr"/>
@@ -3664,11 +3288,7 @@
           <t>i am earning rupees 50k per month</t>
         </is>
       </c>
-      <c r="C47" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C47" s="3" t="inlineStr"/>
     </row>
     <row r="48" ht="15" customHeight="1" s="4">
       <c r="A48" s="3" t="inlineStr"/>
@@ -3773,10 +3393,10 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C:C"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.83984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.84765625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="53.49" customWidth="1" style="3" min="1" max="1"/>
     <col width="108.37" customWidth="1" style="3" min="2" max="2"/>
@@ -3820,11 +3440,7 @@
           <t>I am available today dawn time</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C3" s="3" t="inlineStr"/>
     </row>
     <row r="4" ht="15" customHeight="1" s="4">
       <c r="A4" s="3" t="inlineStr"/>
@@ -3860,11 +3476,7 @@
           <t>Call me in afternoon</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C7" s="3" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1" s="4">
       <c r="A8" s="3" t="inlineStr"/>
@@ -3909,11 +3521,7 @@
           <t>Can we connect later ?</t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C12" s="3" t="inlineStr"/>
     </row>
     <row r="13" ht="15" customHeight="1" s="4">
       <c r="A13" s="3" t="inlineStr"/>
@@ -3931,11 +3539,7 @@
           <t>anytime after this week</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C14" s="3" t="inlineStr"/>
     </row>
     <row r="15" ht="15" customHeight="1" s="4">
       <c r="A15" s="3" t="inlineStr"/>
@@ -3944,11 +3548,7 @@
           <t>anytime between upcoming 10 days</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C15" s="3" t="inlineStr"/>
     </row>
     <row r="16" ht="15" customHeight="1" s="4">
       <c r="A16" s="3" t="inlineStr"/>
@@ -3957,11 +3557,7 @@
           <t>next evening</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C16" s="3" t="inlineStr"/>
     </row>
     <row r="17" ht="15" customHeight="1" s="4">
       <c r="A17" s="3" t="inlineStr"/>
@@ -3988,11 +3584,7 @@
           <t>anytime in weekend</t>
         </is>
       </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C19" s="3" t="inlineStr"/>
     </row>
     <row r="20" ht="15" customHeight="1" s="4">
       <c r="A20" s="3" t="inlineStr"/>
@@ -4010,11 +3602,7 @@
           <t>anytime but not in weekdays</t>
         </is>
       </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C21" s="3" t="inlineStr"/>
     </row>
     <row r="22" ht="15" customHeight="1" s="4">
       <c r="A22" s="3" t="inlineStr"/>
@@ -4041,11 +3629,7 @@
           <t>before afternoon on weekdays</t>
         </is>
       </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C24" s="3" t="inlineStr"/>
     </row>
     <row r="25" ht="15" customHeight="1" s="4">
       <c r="A25" s="3" t="inlineStr"/>
@@ -4216,11 +3800,7 @@
           <t>you can contact at the end of this month</t>
         </is>
       </c>
-      <c r="C43" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C43" s="3" t="inlineStr"/>
     </row>
     <row r="44" ht="15" customHeight="1" s="4">
       <c r="A44" s="3" t="inlineStr"/>
@@ -4256,11 +3836,7 @@
           <t>anytime before tommorow evening</t>
         </is>
       </c>
-      <c r="C47" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C47" s="3" t="inlineStr"/>
     </row>
     <row r="48" ht="15" customHeight="1" s="4">
       <c r="A48" s="3" t="inlineStr"/>

--- a/response_with_status.xlsx
+++ b/response_with_status.xlsx
@@ -534,37 +534,53 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>yeah tell</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr"/>
+          <t>you can contact at the end of this month</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Rescheduled</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15" customHeight="1" s="4">
       <c r="A3" s="3" t="inlineStr"/>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>Ok bye</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr"/>
+          <t>anytime after this week</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Rescheduled</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="15" customHeight="1" s="4">
       <c r="A4" s="3" t="inlineStr"/>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>you can contact at the end of this month</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr"/>
+          <t>yeah tell</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>Paragraph Repeat</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="15" customHeight="1" s="4">
       <c r="A5" s="3" t="inlineStr"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>anytime after this week</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr"/>
+          <t>ok bye</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="15" customHeight="1" s="4">
       <c r="A6" s="3" t="inlineStr"/>
@@ -960,11 +976,7 @@
           <t>i have 3 years of experience but what is the requirement</t>
         </is>
       </c>
-      <c r="C49" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C49" s="3" t="inlineStr"/>
     </row>
     <row r="50" ht="15" customHeight="1" s="4">
       <c r="A50" s="3" t="inlineStr"/>
@@ -973,11 +985,7 @@
           <t>i have 3 years of experience but how much you required</t>
         </is>
       </c>
-      <c r="C50" s="3" t="inlineStr">
-        <is>
-          <t>Paragraph Repeat</t>
-        </is>
-      </c>
+      <c r="C50" s="3" t="inlineStr"/>
     </row>
     <row r="51" ht="15" customHeight="1" s="4">
       <c r="A51" s="3" t="inlineStr"/>
@@ -986,11 +994,7 @@
           <t>yes why not</t>
         </is>
       </c>
-      <c r="C51" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C51" s="3" t="inlineStr"/>
     </row>
     <row r="52" ht="12.8" customHeight="1" s="4"/>
     <row r="53" ht="12.8" customHeight="1" s="4"/>
@@ -1208,7 +1212,11 @@
           <t>I would be available</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr"/>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="15" customHeight="1" s="4">
       <c r="A6" s="3" t="inlineStr"/>
@@ -1604,11 +1612,7 @@
           <t>amm stop this call</t>
         </is>
       </c>
-      <c r="C49" s="3" t="inlineStr">
-        <is>
-          <t>Rescheduled</t>
-        </is>
-      </c>
+      <c r="C49" s="3" t="inlineStr"/>
     </row>
     <row r="50" ht="15" customHeight="1" s="4">
       <c r="A50" s="3" t="inlineStr"/>
@@ -1626,11 +1630,7 @@
           <t>but not bad time</t>
         </is>
       </c>
-      <c r="C51" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C51" s="3" t="inlineStr"/>
     </row>
     <row r="52" ht="12.8" customHeight="1" s="4"/>
     <row r="53" ht="12.8" customHeight="1" s="4"/>
@@ -1795,7 +1795,11 @@
           <t>I have one eighty days of experience in python</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr"/>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="15" customHeight="1" s="4">
       <c r="A6" s="3" t="inlineStr"/>
@@ -2209,11 +2213,7 @@
           <t>Sorry i am expert in different technology not in python.</t>
         </is>
       </c>
-      <c r="C51" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C51" s="3" t="inlineStr"/>
     </row>
     <row r="52" ht="12.8" customHeight="1" s="4"/>
     <row r="53" ht="12.8" customHeight="1" s="4"/>
@@ -2384,7 +2384,11 @@
           <t>I have a yearly salary of 15 lakh INR</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr"/>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="15" customHeight="1" s="4">
       <c r="A6" s="3" t="inlineStr"/>
@@ -2796,11 +2800,7 @@
           <t>"around 9 lpa</t>
         </is>
       </c>
-      <c r="C51" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C51" s="3" t="inlineStr"/>
     </row>
     <row r="52" ht="12.8" customHeight="1" s="4"/>
     <row r="53" ht="12.8" customHeight="1" s="4"/>
@@ -2912,7 +2912,11 @@
           <t>2.5 M INR</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr"/>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="15" customHeight="1" s="4">
       <c r="A6" s="3" t="inlineStr"/>
@@ -3324,11 +3328,7 @@
           <t>around 9 lpa</t>
         </is>
       </c>
-      <c r="C51" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C51" s="3" t="inlineStr"/>
     </row>
     <row r="52" ht="12.8" customHeight="1" s="4"/>
     <row r="53" ht="12.8" customHeight="1" s="4"/>
@@ -3458,7 +3458,11 @@
           <t>You can fix my meeting on friday</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr"/>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="15" customHeight="1" s="4">
       <c r="A6" s="3" t="inlineStr"/>
@@ -3872,11 +3876,7 @@
           <t>anytime but not in weekdays</t>
         </is>
       </c>
-      <c r="C51" s="3" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
+      <c r="C51" s="3" t="inlineStr"/>
     </row>
     <row r="52" ht="12.8" customHeight="1" s="4"/>
     <row r="53" ht="12.8" customHeight="1" s="4"/>
